--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18315" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="inter-sub mv" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,163 +92,192 @@
     <t xml:space="preserve">    'R_hypothalamus'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_olfactory_structures'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AID_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_right'</t>
+  </si>
+  <si>
+    <t>sensory-motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">    'L_pituitary'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    'R_striatum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2L_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPR_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Tr_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1HL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Sh_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1FL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ0_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Fr3_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGc_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_hippocampal_formation'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Ect_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AuV_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLO_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Fr3_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_olfactory_structures'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIV_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AID_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'GI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_right'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striatum</t>
+  </si>
+  <si>
+    <t>anterior-dmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posterior-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippocampus-thalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -272,12 +301,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +343,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,8 +832,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157865472"/>
-        <c:axId val="157867392"/>
+        <c:axId val="83739776"/>
+        <c:axId val="83629952"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1044,11 +1094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157865472"/>
-        <c:axId val="157867392"/>
+        <c:axId val="83739776"/>
+        <c:axId val="83629952"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="157865472"/>
+        <c:axId val="83739776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157867392"/>
+        <c:crossAx val="83629952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157867392"/>
+        <c:axId val="83629952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1117,7 +1167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157865472"/>
+        <c:crossAx val="83739776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1166,15 +1216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1485,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:J42"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1870,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1897,6 +1947,9 @@
       </c>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1926,16 +1979,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" s="4" customFormat="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:2" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1944,141 +2000,163 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" s="4" customFormat="1">
+      <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2086,52 +2164,55 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2144,32 +2225,35 @@
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2177,37 +2261,40 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="B66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2215,72 +2302,81 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18315" windowHeight="6900"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inter-sub mv" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">    'PtPR_right'</t>
   </si>
   <si>
-    <t xml:space="preserve">    'PtPD_right'</t>
-  </si>
-  <si>
     <t xml:space="preserve">    'S1_right'</t>
   </si>
   <si>
@@ -277,6 +274,14 @@
   </si>
   <si>
     <t>hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_diencephalon'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_right'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,18 +306,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -345,13 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +831,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83739776"/>
-        <c:axId val="83629952"/>
+        <c:axId val="152899968"/>
+        <c:axId val="152901888"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1094,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83739776"/>
-        <c:axId val="83629952"/>
+        <c:axId val="152899968"/>
+        <c:axId val="152901888"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="83739776"/>
+        <c:axId val="152899968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83629952"/>
+        <c:crossAx val="152901888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83629952"/>
+        <c:axId val="152901888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1167,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83739776"/>
+        <c:crossAx val="152899968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1535,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -1922,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1947,8 +1946,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>75</v>
+      <c r="A4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1956,7 +1955,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1979,19 +1978,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="4" customFormat="1">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" s="5" customFormat="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:2" s="5" customFormat="1">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2000,87 +1999,87 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4" s="5" customFormat="1">
+      <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>74</v>
+    <row r="18" spans="1:4" s="5" customFormat="1">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2088,75 +2087,75 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2164,55 +2163,55 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2225,35 +2224,35 @@
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2261,40 +2260,40 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="B66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2302,70 +2301,70 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="2:2">

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,170 @@
   </si>
   <si>
     <t xml:space="preserve">    'PtPD_right'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_left'</t>
+  </si>
+  <si>
+    <t>10 modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diencephalon'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_left'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_pituitary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_amygdala'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_bed_nucleus_of_the_stria_terminalis'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diagonal_domain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pallidum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_preoptic_area'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_striatum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_striatum'</t>
+  </si>
+  <si>
+    <t>READ FROM MATLAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ FROM AFNI(maybe more exactly to the real)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +562,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -831,8 +994,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152899968"/>
-        <c:axId val="152901888"/>
+        <c:axId val="152965504"/>
+        <c:axId val="152967424"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1093,11 +1256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152899968"/>
-        <c:axId val="152901888"/>
+        <c:axId val="152965504"/>
+        <c:axId val="152967424"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="152899968"/>
+        <c:axId val="152965504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,13 +1283,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152901888"/>
+        <c:crossAx val="152967424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152901888"/>
+        <c:axId val="152967424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1159,14 +1321,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152899968"/>
+        <c:crossAx val="152965504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1919,457 +2080,832 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1">
-      <c r="A11" s="4">
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1">
-      <c r="A12" s="5">
+      <c r="G14" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1"/>
+    <row r="17" spans="1:7" s="5" customFormat="1"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>79</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
-      <c r="A17" s="4">
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1">
+      <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
-      <c r="A18" s="5">
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1">
+      <c r="A25" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+    <row r="26" spans="1:7" s="5" customFormat="1"/>
+    <row r="27" spans="1:7" s="5" customFormat="1"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="G30" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
+    <row r="34" spans="1:9">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
+    <row r="35" spans="1:9">
+      <c r="B35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
+    <row r="36" spans="1:9">
+      <c r="B36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
+      <c r="G39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
+      <c r="I39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B55" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B57" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
+      <c r="G58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+      <c r="G60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" t="s">
+      <c r="G61" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+      <c r="G62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="G65" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
         <v>3</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+      <c r="G70" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+      <c r="G72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="B59" t="s">
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="G77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="G78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>2</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" t="s">
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
         <v>75</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
+      <c r="G85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="B67" t="s">
+      <c r="G86" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
+    <row r="87" spans="1:7">
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
+      <c r="G89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="G90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="G91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>1</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B95" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
+      <c r="G95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="B96" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
+      <c r="G96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="B74" t="s">
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="G98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
         <v>78</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B99" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
+      <c r="G99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="B78" t="s">
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="B102" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" t="s">
+      <c r="G102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="B104" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+      <c r="G104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+      <c r="G105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="B106" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+      <c r="G106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="B107" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90">
-        <v>7</v>
+      <c r="G107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="G109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="G110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="G112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="inter-sub mv" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,10 @@
   </si>
   <si>
     <t>READ FROM AFNI(maybe more exactly to the real)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pituitary'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,6 +566,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -994,8 +999,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152965504"/>
-        <c:axId val="152967424"/>
+        <c:axId val="154129536"/>
+        <c:axId val="153491328"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1256,11 +1261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152965504"/>
-        <c:axId val="152967424"/>
+        <c:axId val="154129536"/>
+        <c:axId val="153491328"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="152965504"/>
+        <c:axId val="154129536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1288,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152967424"/>
+        <c:crossAx val="153491328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1296,7 +1302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152967424"/>
+        <c:axId val="153491328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1321,13 +1327,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152965504"/>
+        <c:crossAx val="154129536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1695,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2082,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2213,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1"/>

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="142">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下面删除了两个模块（7，8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mean_low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,6 +446,34 @@
   </si>
   <si>
     <t xml:space="preserve">    'R_pituitary'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sen-Motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hipp-tha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$A$2</c:f>
+              <c:f>'inter-sub mv'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -597,118 +624,120 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$A$15:$A$24</c:f>
+                <c:f>'inter-sub mv'!$B$12:$B$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.0263210271752697E-2</c:v>
+                    <c:v>7.8921477689764305E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>5.6885639898174099E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>5.4591302446414497E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5194556550479499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0263210271752697E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>3.3137020828166497E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.8921477689764305E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.5329486702522697E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.1052369815160199E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.7650752347363998E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>3.87486917152138E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>6.5308080881854302E-2</c:v>
+                    <c:v>6.3009406673340901E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$A$15:$A$24</c:f>
+                <c:f>'inter-sub mv'!$B$12:$B$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.0263210271752697E-2</c:v>
+                    <c:v>7.8921477689764305E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>5.6885639898174099E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>5.4591302446414497E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.5194556550479499E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0263210271752697E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>3.3137020828166497E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.8921477689764305E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.5329486702522697E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.1052369815160199E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.7650752347363998E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>3.87486917152138E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>6.5308080881854302E-2</c:v>
+                    <c:v>6.3009406673340901E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'inter-sub mv'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>pos-DMN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sen-Motor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hipp-tha</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Striatum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'inter-sub mv'!$A$3:$A$12</c:f>
+              <c:f>'inter-sub mv'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.70963683664064</c:v>
+                  <c:v>1.61686162896052</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.66740207467638</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6757627835831299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69001235063026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.70963683664064</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.71936302512784</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.61686162896052</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6692740180023999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.72118414264821</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7606367414542701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6719667592744301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.70805794198608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.73910090735544</c:v>
+                  <c:v>1.74063918121964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +748,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$B$2</c:f>
+              <c:f>'inter-sub mv'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -735,118 +764,120 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$B$15:$B$24</c:f>
+                <c:f>'inter-sub mv'!$C$12:$C$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>6.1865920713293297E-2</c:v>
+                    <c:v>4.3131651956257802E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.7794701672739499E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>7.9154349644630695E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5010058259367399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.1865920713293297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>2.24790750406621E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3131651956257802E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.4434334443034997E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.7540611809681901E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0883588129355298E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.6194993923251399E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.63524418425072E-2</c:v>
+                    <c:v>2.5363817762516699E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$B$15:$B$24</c:f>
+                <c:f>'inter-sub mv'!$C$12:$C$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>6.1865920713293297E-2</c:v>
+                    <c:v>4.3131651956257802E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.7794701672739499E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>7.9154349644630695E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5010058259367399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.1865920713293297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>2.24790750406621E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3131651956257802E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.4434334443034997E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.7540611809681901E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0883588129355298E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2.6194993923251399E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.63524418425072E-2</c:v>
+                    <c:v>2.5363817762516699E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'inter-sub mv'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>pos-DMN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sen-Motor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hipp-tha</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Striatum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'inter-sub mv'!$B$3:$B$12</c:f>
+              <c:f>'inter-sub mv'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6475480004205101</c:v>
+                  <c:v>1.6227949271612101</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7284678605676</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6439621909277899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6988879555915399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6475480004205101</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.70458966508044</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6227949271612101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6441230535912901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6428361522833199</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.73837199227231</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6888655395852099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.70891037159787</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7327081279169201</c:v>
+                  <c:v>1.73311268965659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +888,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$C$2</c:f>
+              <c:f>'inter-sub mv'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,118 +904,120 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$C$15:$C$24</c:f>
+                <c:f>'inter-sub mv'!$D$12:$D$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.24877170269366E-2</c:v>
+                    <c:v>7.0537211575098499E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.7343082135664099E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>4.1370232532819101E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6688177547388001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.24877170269366E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>1.72284665888346E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.0537211575098499E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.2080462746079003E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7869134934342099E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2.6420492286195901E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.0073155963067E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3.8798423987017702E-2</c:v>
+                    <c:v>3.7276401170930097E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$C$15:$C$24</c:f>
+                <c:f>'inter-sub mv'!$D$12:$D$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.24877170269366E-2</c:v>
+                    <c:v>7.0537211575098499E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.7343082135664099E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>4.1370232532819101E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6688177547388001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.24877170269366E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>1.72284665888346E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.0537211575098499E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.2080462746079003E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1.7869134934342099E-2</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2.6420492286195901E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.0073155963067E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3.8798423987017702E-2</c:v>
+                    <c:v>3.7276401170930097E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'inter-sub mv'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>pos-DMN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sen-Motor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hipp-tha</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Striatum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'inter-sub mv'!$C$3:$C$12</c:f>
+              <c:f>'inter-sub mv'!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6335380247150399</c:v>
+                  <c:v>1.56995655148889</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.68965188572415</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6394101422109999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.71529830284909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6335380247150399</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.6778669416796701</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.56995655148889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6438492087358101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6083366765373399</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.67105888307303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7182972579111999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7122993477869799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.67134991352086</c:v>
+                  <c:v>1.67132912563173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,8 +1032,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154129536"/>
-        <c:axId val="153491328"/>
+        <c:axId val="161292288"/>
+        <c:axId val="161294208"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1010,7 +1043,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$D$2</c:f>
+              <c:f>'inter-sub mv'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1046,39 +1079,30 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'inter-sub mv'!$D$3:$D$12</c:f>
+              <c:f>'inter-sub mv'!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.698348407612621</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.698348</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.698348</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.698348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.698348</c:v>
+                  <c:v>1.7150270000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,7 +1114,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$E$2</c:f>
+              <c:f>'inter-sub mv'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,39 +1155,30 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'inter-sub mv'!$E$3:$E$12</c:f>
+              <c:f>'inter-sub mv'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6859215690476677</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6859219999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6859219999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6859219999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6859219999999999</c:v>
+                  <c:v>1.682766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1190,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'inter-sub mv'!$F$2</c:f>
+              <c:f>'inter-sub mv'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1214,39 +1229,30 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'inter-sub mv'!$F$3:$F$12</c:f>
+              <c:f>'inter-sub mv'!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6596204691172971</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6596200000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6596200000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6596200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6596200000000001</c:v>
+                  <c:v>1.656722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,11 +1267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154129536"/>
-        <c:axId val="153491328"/>
+        <c:axId val="161292288"/>
+        <c:axId val="161294208"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="154129536"/>
+        <c:axId val="161292288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153491328"/>
+        <c:crossAx val="161294208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153491328"/>
+        <c:axId val="161294208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1334,7 +1340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154129536"/>
+        <c:crossAx val="161292288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1375,6 +1381,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1382,15 +1389,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1410,7 +1417,996 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1685925"/>
+          <a:ext cx="0" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="1685925"/>
+          <a:ext cx="1" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1695450"/>
+          <a:ext cx="142876" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753101" y="1714500"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5762626" y="1724025"/>
+          <a:ext cx="133349" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5895975" y="1724025"/>
+          <a:ext cx="1" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5895975" y="1657350"/>
+          <a:ext cx="1" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019801" y="1638300"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5886451" y="1647825"/>
+          <a:ext cx="133349" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="1695450"/>
+          <a:ext cx="0" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="1704975"/>
+          <a:ext cx="1" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="1704975"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21471</cdr:x>
+      <cdr:y>0.194</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24118</cdr:x>
+      <cdr:y>0.26455</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1390650" y="523876"/>
+          <a:ext cx="171449" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23578</cdr:x>
+      <cdr:y>0.17402</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26225</cdr:x>
+      <cdr:y>0.24456</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1527175" y="469900"/>
+          <a:ext cx="171449" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50784</cdr:x>
+      <cdr:y>0.18812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53431</cdr:x>
+      <cdr:y>0.25867</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3289300" y="508000"/>
+          <a:ext cx="171449" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71373</cdr:x>
+      <cdr:y>0.18812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7402</cdr:x>
+      <cdr:y>0.25867</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4622800" y="508000"/>
+          <a:ext cx="171449" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1700,382 +2696,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>1.61686162896052</v>
+      </c>
+      <c r="C3">
+        <v>1.6227949271612101</v>
+      </c>
+      <c r="D3">
+        <v>1.56995655148889</v>
+      </c>
+      <c r="E3">
+        <v>1.7150270000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.682766</v>
+      </c>
+      <c r="G3">
+        <v>1.656722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>1.66740207467638</v>
+      </c>
+      <c r="C4">
+        <v>1.7284678605676</v>
+      </c>
+      <c r="D4">
+        <v>1.68965188572415</v>
+      </c>
+      <c r="E4">
+        <v>1.7150270000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.682766</v>
+      </c>
+      <c r="G4">
+        <v>1.656722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>1.6757627835831299</v>
+      </c>
+      <c r="C5">
+        <v>1.6439621909277899</v>
+      </c>
+      <c r="D5">
+        <v>1.6394101422109999</v>
+      </c>
+      <c r="E5">
+        <v>1.7150270000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.682766</v>
+      </c>
+      <c r="G5">
+        <v>1.656722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>1.69001235063026</v>
+      </c>
+      <c r="C6">
+        <v>1.6988879555915399</v>
+      </c>
+      <c r="D6">
+        <v>1.71529830284909</v>
+      </c>
+      <c r="E6">
+        <v>1.7150270000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.682766</v>
+      </c>
+      <c r="G6">
+        <v>1.656722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
         <v>1.70963683664064</v>
       </c>
-      <c r="B3">
+      <c r="C7">
         <v>1.6475480004205101</v>
       </c>
-      <c r="C3">
+      <c r="D7">
         <v>1.6335380247150399</v>
       </c>
-      <c r="D3">
-        <f>AVERAGE(A3:A12)</f>
-        <v>1.698348407612621</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(B3:B12)</f>
-        <v>1.6859215690476677</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(C3:C12)</f>
-        <v>1.6596204691172971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1.66740207467638</v>
-      </c>
-      <c r="B4">
-        <v>1.7284678605676</v>
-      </c>
-      <c r="C4">
-        <v>1.68965188572415</v>
-      </c>
-      <c r="D4">
-        <v>1.698348</v>
-      </c>
-      <c r="E4">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.6596200000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="E7">
+        <v>1.7150270000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.682766</v>
+      </c>
+      <c r="G7">
+        <v>1.656722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8">
         <v>1.71936302512784</v>
       </c>
-      <c r="B5">
+      <c r="C8">
         <v>1.70458966508044</v>
       </c>
-      <c r="C5">
+      <c r="D8">
         <v>1.6778669416796701</v>
       </c>
-      <c r="D5">
-        <v>1.698348</v>
-      </c>
-      <c r="E5">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.6596200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1.61686162896052</v>
-      </c>
-      <c r="B6">
-        <v>1.6227949271612101</v>
-      </c>
-      <c r="C6">
-        <v>1.56995655148889</v>
-      </c>
-      <c r="D6">
-        <v>1.698348</v>
-      </c>
-      <c r="E6">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F6">
-        <v>1.6596200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1.6692740180023999</v>
-      </c>
-      <c r="B7">
-        <v>1.6441230535912901</v>
-      </c>
-      <c r="C7">
-        <v>1.6438492087358101</v>
-      </c>
-      <c r="D7">
-        <v>1.698348</v>
-      </c>
-      <c r="E7">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F7">
-        <v>1.6596200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1.72118414264821</v>
-      </c>
-      <c r="B8">
-        <v>1.6428361522833199</v>
-      </c>
-      <c r="C8">
-        <v>1.6083366765373399</v>
-      </c>
-      <c r="D8">
-        <v>1.698348</v>
-      </c>
       <c r="E8">
-        <v>1.6859219999999999</v>
+        <v>1.7150270000000001</v>
       </c>
       <c r="F8">
-        <v>1.6596200000000001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+        <v>1.682766</v>
+      </c>
+      <c r="G8">
+        <v>1.656722</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1.7606367414542701</v>
+      <c r="A9" t="s">
+        <v>138</v>
       </c>
       <c r="B9">
-        <v>1.73837199227231</v>
+        <v>1.74063918121964</v>
       </c>
       <c r="C9">
-        <v>1.67105888307303</v>
+        <v>1.73311268965659</v>
       </c>
       <c r="D9">
-        <v>1.698348</v>
+        <v>1.67132912563173</v>
       </c>
       <c r="E9">
-        <v>1.6859219999999999</v>
+        <v>1.7150270000000001</v>
       </c>
       <c r="F9">
-        <v>1.6596200000000001</v>
+        <v>1.682766</v>
+      </c>
+      <c r="G9">
+        <v>1.656722</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>1.6719667592744301</v>
-      </c>
-      <c r="B10">
-        <v>1.6888655395852099</v>
-      </c>
-      <c r="C10">
-        <v>1.7182972579111999</v>
-      </c>
-      <c r="D10">
-        <v>1.698348</v>
-      </c>
-      <c r="E10">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F10">
-        <v>1.6596200000000001</v>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>1.70805794198608</v>
-      </c>
-      <c r="B11">
-        <v>1.70891037159787</v>
-      </c>
-      <c r="C11">
-        <v>1.7122993477869799</v>
-      </c>
-      <c r="D11">
-        <v>1.698348</v>
-      </c>
-      <c r="E11">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F11">
-        <v>1.6596200000000001</v>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
-        <v>1.73910090735544</v>
-      </c>
       <c r="B12">
-        <v>1.7327081279169201</v>
+        <v>7.8921477689764305E-2</v>
       </c>
       <c r="C12">
-        <v>1.67134991352086</v>
+        <v>4.3131651956257802E-2</v>
       </c>
       <c r="D12">
-        <v>1.698348</v>
-      </c>
-      <c r="E12">
-        <v>1.6859219999999999</v>
-      </c>
-      <c r="F12">
-        <v>1.6596200000000001</v>
+        <v>7.0537211575098499E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+      <c r="B13">
+        <v>5.6885639898174099E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7794701672739499E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.7343082135664099E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+      <c r="B14">
+        <v>5.4591302446414497E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.9154349644630695E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.1370232532819101E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="B15">
+        <v>4.5194556550479499E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.5010058259367399E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.6688177547388001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16">
         <v>4.0263210271752697E-2</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>6.1865920713293297E-2</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>4.24877170269366E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>5.6885639898174099E-2</v>
-      </c>
-      <c r="B16">
-        <v>1.7794701672739499E-2</v>
-      </c>
-      <c r="C16">
-        <v>2.7343082135664099E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" spans="2:15">
+      <c r="B17">
         <v>3.3137020828166497E-2</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2.24790750406621E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.72284665888346E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>7.8921477689764305E-2</v>
-      </c>
+    <row r="18" spans="2:15">
       <c r="B18">
-        <v>4.3131651956257802E-2</v>
+        <v>6.3009406673340901E-2</v>
       </c>
       <c r="C18">
-        <v>7.0537211575098499E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>5.5329486702522697E-2</v>
-      </c>
-      <c r="B19">
-        <v>8.4434334443034997E-2</v>
-      </c>
-      <c r="C19">
-        <v>4.2080462746079003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1.1052369815160199E-2</v>
-      </c>
-      <c r="B20">
-        <v>2.7540611809681901E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.7869134934342099E-2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>5.7650752347363998E-2</v>
-      </c>
-      <c r="B22">
-        <v>5.0883588129355298E-2</v>
-      </c>
-      <c r="C22">
-        <v>2.6420492286195901E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>3.87486917152138E-2</v>
-      </c>
-      <c r="B23">
-        <v>2.6194993923251399E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.0073155963067E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>6.5308080881854302E-2</v>
-      </c>
-      <c r="B24">
-        <v>2.63524418425072E-2</v>
-      </c>
-      <c r="C24">
-        <v>3.8798423987017702E-2</v>
-      </c>
+        <v>2.5363817762516699E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.7276401170930097E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2101,10 +3025,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2112,90 +3036,90 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2206,10 +3130,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1">
@@ -2217,10 +3141,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1"/>
@@ -2230,21 +3154,21 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1">
@@ -2252,10 +3176,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1">
@@ -2263,7 +3187,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1"/>
@@ -2273,12 +3197,12 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2286,51 +3210,51 @@
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2338,138 +3262,138 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2477,136 +3401,136 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="G65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="G67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2614,88 +3538,88 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="G77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="G78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="G79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2703,71 +3627,71 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
         <v>43</v>
-      </c>
-      <c r="G86" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="G90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="G91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2775,144 +3699,144 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="B98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="B100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="B101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="B102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="B104" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="B105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="B106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="B107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="G108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="G109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="G110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="G111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="G112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +474,46 @@
   </si>
   <si>
     <t>Hipp-tha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,25 +669,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.8921477689764305E-2</c:v>
+                    <c:v>3.9207404791917803E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.6885639898174099E-2</c:v>
+                    <c:v>2.7102891658715801E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.4591302446414497E-2</c:v>
+                    <c:v>2.3982537504263102E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5194556550479499E-2</c:v>
+                    <c:v>2.3513954819945601E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.0263210271752697E-2</c:v>
+                    <c:v>2.1065546820160999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.3137020828166497E-2</c:v>
+                    <c:v>1.5980772575613401E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3009406673340901E-2</c:v>
+                    <c:v>3.3105032874113399E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -659,25 +699,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.8921477689764305E-2</c:v>
+                    <c:v>3.9207404791917803E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.6885639898174099E-2</c:v>
+                    <c:v>2.7102891658715801E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.4591302446414497E-2</c:v>
+                    <c:v>2.3982537504263102E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5194556550479499E-2</c:v>
+                    <c:v>2.3513954819945601E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.0263210271752697E-2</c:v>
+                    <c:v>2.1065546820160999E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.3137020828166497E-2</c:v>
+                    <c:v>1.5980772575613401E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3009406673340901E-2</c:v>
+                    <c:v>3.3105032874113399E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -719,25 +759,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.61686162896052</c:v>
+                  <c:v>0.86013913548944299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66740207467638</c:v>
+                  <c:v>0.88876798106469002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6757627835831299</c:v>
+                  <c:v>0.89368861601329197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.69001235063026</c:v>
+                  <c:v>0.89613498258880198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.70963683664064</c:v>
+                  <c:v>0.90473115352440103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.71936302512784</c:v>
+                  <c:v>0.91134545145489598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.74063918121964</c:v>
+                  <c:v>0.92188420528036497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,25 +809,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.3131651956257802E-2</c:v>
+                    <c:v>2.33683205147413E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7794701672739499E-2</c:v>
+                    <c:v>9.1178696300748593E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.9154349644630695E-2</c:v>
+                    <c:v>4.2579614388559298E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5010058259367399E-2</c:v>
+                    <c:v>1.9975624780724399E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.1865920713293297E-2</c:v>
+                    <c:v>3.2729794011663697E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.24790750406621E-2</c:v>
+                    <c:v>1.18916922403634E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.5363817762516699E-2</c:v>
+                    <c:v>1.3255190058802701E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -799,25 +839,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>4.3131651956257802E-2</c:v>
+                    <c:v>2.33683205147413E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7794701672739499E-2</c:v>
+                    <c:v>9.1178696300748593E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.9154349644630695E-2</c:v>
+                    <c:v>4.2579614388559298E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.5010058259367399E-2</c:v>
+                    <c:v>1.9975624780724399E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.1865920713293297E-2</c:v>
+                    <c:v>3.2729794011663697E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.24790750406621E-2</c:v>
+                    <c:v>1.18916922403634E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2.5363817762516699E-2</c:v>
+                    <c:v>1.3255190058802701E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -859,25 +899,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6227949271612101</c:v>
+                  <c:v>0.87098795012969199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7284678605676</c:v>
+                  <c:v>0.92750114041789899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6439621909277899</c:v>
+                  <c:v>0.88305677182596198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6988879555915399</c:v>
+                  <c:v>0.91346951060719495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6475480004205101</c:v>
+                  <c:v>0.88520416426415904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.70458966508044</c:v>
+                  <c:v>0.91574043196715504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.73311268965659</c:v>
+                  <c:v>0.93011573304266004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,25 +949,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.0537211575098499E-2</c:v>
+                    <c:v>3.7388630802793497E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7343082135664099E-2</c:v>
+                    <c:v>1.46215431557742E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.1370232532819101E-2</c:v>
+                    <c:v>2.1877622461327802E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6688177547388001E-2</c:v>
+                    <c:v>9.1995310331178509E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.24877170269366E-2</c:v>
+                    <c:v>2.2341900052381201E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.72284665888346E-2</c:v>
+                    <c:v>9.7508255636843399E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7276401170930097E-2</c:v>
+                    <c:v>1.9198891056000301E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -939,25 +979,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.0537211575098499E-2</c:v>
+                    <c:v>3.7388630802793497E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7343082135664099E-2</c:v>
+                    <c:v>1.46215431557742E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.1370232532819101E-2</c:v>
+                    <c:v>2.1877622461327802E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.6688177547388001E-2</c:v>
+                    <c:v>9.1995310331178509E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.24877170269366E-2</c:v>
+                    <c:v>2.2341900052381201E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.72284665888346E-2</c:v>
+                    <c:v>9.7508255636843399E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7276401170930097E-2</c:v>
+                    <c:v>1.9198891056000301E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -999,25 +1039,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.56995655148889</c:v>
+                  <c:v>0.86238596670868695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.68965188572415</c:v>
+                  <c:v>0.92477926541489497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6394101422109999</c:v>
+                  <c:v>0.89788570408110302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71529830284909</c:v>
+                  <c:v>0.93677445417222005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6335380247150399</c:v>
+                  <c:v>0.89468601235775502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6778669416796701</c:v>
+                  <c:v>0.91674613414276895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.67132912563173</c:v>
+                  <c:v>0.91564976121189801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,8 +1072,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161292288"/>
-        <c:axId val="161294208"/>
+        <c:axId val="153478272"/>
+        <c:axId val="153167744"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1058,17 +1098,20 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="dot"/>
             <c:size val="2"/>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:name>baseline_low</c:name>
             <c:spPr>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -1084,25 +1127,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7150270000000001</c:v>
+                  <c:v>0.89666999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,22 +1172,20 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="dash"/>
             <c:size val="2"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:name>baseline_mid</c:name>
             <c:spPr>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -1160,25 +1201,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.682766</c:v>
+                  <c:v>0.903725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,20 +1246,21 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="dash"/>
             <c:size val="2"/>
             <c:spPr>
+              <a:noFill/>
               <a:ln w="0"/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:name>baseline_high</c:name>
             <c:spPr>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -1234,25 +1276,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.656722</c:v>
+                  <c:v>0.90698699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,11 +1309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161292288"/>
-        <c:axId val="161294208"/>
+        <c:axId val="153478272"/>
+        <c:axId val="153167744"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="161292288"/>
+        <c:axId val="153478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161294208"/>
+        <c:crossAx val="153167744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,11 +1350,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161294208"/>
+        <c:axId val="153167744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-          <c:min val="1.5"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1340,10 +1382,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161292288"/>
+        <c:crossAx val="153478272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1420,15 +1462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1437,7 +1479,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="1685925"/>
+          <a:off x="8334375" y="2009775"/>
           <a:ext cx="0" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1474,69 +1516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781925" y="1685925"/>
-          <a:ext cx="1" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="bg1"/>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1545,7 +1533,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="1695450"/>
+          <a:off x="8334375" y="2009775"/>
           <a:ext cx="142876" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1582,15 +1570,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1599,8 +1587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753101" y="1714500"/>
-          <a:ext cx="0" cy="219075"/>
+          <a:off x="6467476" y="1762125"/>
+          <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1636,15 +1624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9528</xdr:rowOff>
+      <xdr:rowOff>38103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1653,7 +1641,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5762626" y="1724025"/>
+          <a:off x="6467476" y="1752600"/>
           <a:ext cx="133349" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1690,25 +1678,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接连接符 16"/>
+        <xdr:cNvPr id="38" name="直接连接符 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5895975" y="1724025"/>
-          <a:ext cx="1" cy="85725"/>
+        <a:xfrm>
+          <a:off x="6743701" y="1647825"/>
+          <a:ext cx="0" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1744,25 +1732,187 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5895975" y="1657350"/>
-          <a:ext cx="1" cy="85725"/>
+        <a:xfrm>
+          <a:off x="6467475" y="1647825"/>
+          <a:ext cx="276225" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="1809750"/>
+          <a:ext cx="0" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="1819275"/>
+          <a:ext cx="0" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="1819275"/>
+          <a:ext cx="304800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1798,25 +1948,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
+      <xdr:colOff>428626</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直接连接符 37"/>
+        <xdr:cNvPr id="18" name="直接连接符 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019801" y="1638300"/>
-          <a:ext cx="0" cy="333375"/>
+          <a:off x="6600826" y="1762125"/>
+          <a:ext cx="0" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1852,25 +2002,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvPr id="20" name="直接连接符 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5886451" y="1647825"/>
-          <a:ext cx="133349" cy="3"/>
+        <a:xfrm>
+          <a:off x="6467475" y="1647825"/>
+          <a:ext cx="0" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1905,134 +2055,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvPr id="21" name="直接连接符 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8896350" y="1695450"/>
-          <a:ext cx="0" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="bg1"/>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直接连接符 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9191625" y="1704975"/>
-          <a:ext cx="1" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="bg1"/>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接连接符 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8886825" y="1704975"/>
-          <a:ext cx="304800" cy="0"/>
+          <a:off x="8486775" y="2000250"/>
+          <a:ext cx="0" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2072,12 +2114,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21471</cdr:x>
-      <cdr:y>0.194</cdr:y>
+      <cdr:x>0.22204</cdr:x>
+      <cdr:y>0.21852</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.24118</cdr:x>
-      <cdr:y>0.26455</cdr:y>
+      <cdr:x>0.24851</cdr:x>
+      <cdr:y>0.28907</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2086,8 +2128,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1390650" y="523876"/>
-          <a:ext cx="171449" cy="190500"/>
+          <a:off x="1442392" y="594236"/>
+          <a:ext cx="171950" cy="191853"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2208,12 +2250,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.50784</cdr:x>
-      <cdr:y>0.18812</cdr:y>
+      <cdr:x>0.51077</cdr:x>
+      <cdr:y>0.2897</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.53431</cdr:x>
-      <cdr:y>0.25867</cdr:y>
+      <cdr:x>0.53724</cdr:x>
+      <cdr:y>0.36025</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2222,8 +2264,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3289300" y="508000"/>
-          <a:ext cx="171449" cy="190500"/>
+          <a:off x="3318004" y="787796"/>
+          <a:ext cx="171950" cy="191853"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2308,12 +2350,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71373</cdr:x>
-      <cdr:y>0.18812</cdr:y>
+      <cdr:x>0.42341</cdr:x>
+      <cdr:y>0.23365</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7402</cdr:x>
-      <cdr:y>0.25867</cdr:y>
+      <cdr:x>0.44988</cdr:x>
+      <cdr:y>0.3042</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2322,8 +2364,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4622800" y="508000"/>
-          <a:ext cx="171449" cy="190500"/>
+          <a:off x="2750476" y="635396"/>
+          <a:ext cx="171950" cy="191853"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2696,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2740,22 +2782,22 @@
         <v>135</v>
       </c>
       <c r="B3">
-        <v>1.61686162896052</v>
+        <v>0.86013913548944299</v>
       </c>
       <c r="C3">
-        <v>1.6227949271612101</v>
+        <v>0.87098795012969199</v>
       </c>
       <c r="D3">
-        <v>1.56995655148889</v>
+        <v>0.86238596670868695</v>
       </c>
       <c r="E3">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F3">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G3">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2763,22 +2805,22 @@
         <v>136</v>
       </c>
       <c r="B4">
-        <v>1.66740207467638</v>
+        <v>0.88876798106469002</v>
       </c>
       <c r="C4">
-        <v>1.7284678605676</v>
+        <v>0.92750114041789899</v>
       </c>
       <c r="D4">
-        <v>1.68965188572415</v>
+        <v>0.92477926541489497</v>
       </c>
       <c r="E4">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F4">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G4">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2786,22 +2828,22 @@
         <v>140</v>
       </c>
       <c r="B5">
-        <v>1.6757627835831299</v>
+        <v>0.89368861601329197</v>
       </c>
       <c r="C5">
-        <v>1.6439621909277899</v>
+        <v>0.88305677182596198</v>
       </c>
       <c r="D5">
-        <v>1.6394101422109999</v>
+        <v>0.89788570408110302</v>
       </c>
       <c r="E5">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F5">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G5">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2809,22 +2851,22 @@
         <v>139</v>
       </c>
       <c r="B6">
-        <v>1.69001235063026</v>
+        <v>0.89613498258880198</v>
       </c>
       <c r="C6">
-        <v>1.6988879555915399</v>
+        <v>0.91346951060719495</v>
       </c>
       <c r="D6">
-        <v>1.71529830284909</v>
+        <v>0.93677445417222005</v>
       </c>
       <c r="E6">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F6">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G6">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2832,22 +2874,22 @@
         <v>137</v>
       </c>
       <c r="B7">
-        <v>1.70963683664064</v>
+        <v>0.90473115352440103</v>
       </c>
       <c r="C7">
-        <v>1.6475480004205101</v>
+        <v>0.88520416426415904</v>
       </c>
       <c r="D7">
-        <v>1.6335380247150399</v>
+        <v>0.89468601235775502</v>
       </c>
       <c r="E7">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F7">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G7">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2855,22 +2897,22 @@
         <v>141</v>
       </c>
       <c r="B8">
-        <v>1.71936302512784</v>
+        <v>0.91134545145489598</v>
       </c>
       <c r="C8">
-        <v>1.70458966508044</v>
+        <v>0.91574043196715504</v>
       </c>
       <c r="D8">
-        <v>1.6778669416796701</v>
+        <v>0.91674613414276895</v>
       </c>
       <c r="E8">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F8">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G8">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2878,22 +2920,22 @@
         <v>138</v>
       </c>
       <c r="B9">
-        <v>1.74063918121964</v>
+        <v>0.92188420528036497</v>
       </c>
       <c r="C9">
-        <v>1.73311268965659</v>
+        <v>0.93011573304266004</v>
       </c>
       <c r="D9">
-        <v>1.67132912563173</v>
+        <v>0.91564976121189801</v>
       </c>
       <c r="E9">
-        <v>1.7150270000000001</v>
+        <v>0.89666999999999997</v>
       </c>
       <c r="F9">
-        <v>1.682766</v>
+        <v>0.903725</v>
       </c>
       <c r="G9">
-        <v>1.656722</v>
+        <v>0.90698699999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2917,82 +2959,82 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12">
-        <v>7.8921477689764305E-2</v>
+        <v>3.9207404791917803E-2</v>
       </c>
       <c r="C12">
-        <v>4.3131651956257802E-2</v>
+        <v>2.33683205147413E-2</v>
       </c>
       <c r="D12">
-        <v>7.0537211575098499E-2</v>
+        <v>3.7388630802793497E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13">
-        <v>5.6885639898174099E-2</v>
+        <v>2.7102891658715801E-2</v>
       </c>
       <c r="C13">
-        <v>1.7794701672739499E-2</v>
+        <v>9.1178696300748593E-3</v>
       </c>
       <c r="D13">
-        <v>2.7343082135664099E-2</v>
+        <v>1.46215431557742E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14">
-        <v>5.4591302446414497E-2</v>
+        <v>2.3982537504263102E-2</v>
       </c>
       <c r="C14">
-        <v>7.9154349644630695E-2</v>
+        <v>4.2579614388559298E-2</v>
       </c>
       <c r="D14">
-        <v>4.1370232532819101E-2</v>
+        <v>2.1877622461327802E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15">
-        <v>4.5194556550479499E-2</v>
+        <v>2.3513954819945601E-2</v>
       </c>
       <c r="C15">
-        <v>3.5010058259367399E-2</v>
+        <v>1.9975624780724399E-2</v>
       </c>
       <c r="D15">
-        <v>1.6688177547388001E-2</v>
+        <v>9.1995310331178509E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16">
-        <v>4.0263210271752697E-2</v>
+        <v>2.1065546820160999E-2</v>
       </c>
       <c r="C16">
-        <v>6.1865920713293297E-2</v>
+        <v>3.2729794011663697E-2</v>
       </c>
       <c r="D16">
-        <v>4.24877170269366E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>2.2341900052381201E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17">
-        <v>3.3137020828166497E-2</v>
+        <v>1.5980772575613401E-2</v>
       </c>
       <c r="C17">
-        <v>2.24790750406621E-2</v>
+        <v>1.18916922403634E-2</v>
       </c>
       <c r="D17">
-        <v>1.72284665888346E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>9.7508255636843399E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18">
-        <v>6.3009406673340901E-2</v>
+        <v>3.3105032874113399E-2</v>
       </c>
       <c r="C18">
-        <v>2.5363817762516699E-2</v>
+        <v>1.3255190058802701E-2</v>
       </c>
       <c r="D18">
-        <v>3.7276401170930097E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+        <v>1.9198891056000301E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3000,6 +3042,505 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29">
+        <v>0.90473115352440103</v>
+      </c>
+      <c r="D29">
+        <v>0.88520416426415904</v>
+      </c>
+      <c r="E29">
+        <v>0.89468601235775502</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(C29:C35)</f>
+        <v>0.89667021791655555</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(D29:D35)</f>
+        <v>0.90372510032210318</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(E29:E35)</f>
+        <v>0.90698675686990404</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29">
+        <v>0.86013913548944299</v>
+      </c>
+      <c r="L29">
+        <v>0.87098795012969199</v>
+      </c>
+      <c r="M29">
+        <v>0.86238596670868695</v>
+      </c>
+      <c r="N29">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O29">
+        <v>0.903725</v>
+      </c>
+      <c r="P29">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>0.88876798106469002</v>
+      </c>
+      <c r="D30">
+        <v>0.92750114041789899</v>
+      </c>
+      <c r="E30">
+        <v>0.92477926541489497</v>
+      </c>
+      <c r="F30">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.903725</v>
+      </c>
+      <c r="H30">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30">
+        <v>0.88876798106469002</v>
+      </c>
+      <c r="L30">
+        <v>0.92750114041789899</v>
+      </c>
+      <c r="M30">
+        <v>0.92477926541489497</v>
+      </c>
+      <c r="N30">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O30">
+        <v>0.903725</v>
+      </c>
+      <c r="P30">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31">
+        <v>0.91134545145489598</v>
+      </c>
+      <c r="D31">
+        <v>0.91574043196715504</v>
+      </c>
+      <c r="E31">
+        <v>0.91674613414276895</v>
+      </c>
+      <c r="F31">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G31">
+        <v>0.903725</v>
+      </c>
+      <c r="H31">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31">
+        <v>0.89368861601329197</v>
+      </c>
+      <c r="L31">
+        <v>0.88305677182596198</v>
+      </c>
+      <c r="M31">
+        <v>0.89788570408110302</v>
+      </c>
+      <c r="N31">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O31">
+        <v>0.903725</v>
+      </c>
+      <c r="P31">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32">
+        <v>0.86013913548944299</v>
+      </c>
+      <c r="D32">
+        <v>0.87098795012969199</v>
+      </c>
+      <c r="E32">
+        <v>0.86238596670868695</v>
+      </c>
+      <c r="F32">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G32">
+        <v>0.903725</v>
+      </c>
+      <c r="H32">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32">
+        <v>0.89613498258880198</v>
+      </c>
+      <c r="L32">
+        <v>0.91346951060719495</v>
+      </c>
+      <c r="M32">
+        <v>0.93677445417222005</v>
+      </c>
+      <c r="N32">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O32">
+        <v>0.903725</v>
+      </c>
+      <c r="P32">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33">
+        <v>0.89368861601329197</v>
+      </c>
+      <c r="D33">
+        <v>0.88305677182596198</v>
+      </c>
+      <c r="E33">
+        <v>0.89788570408110302</v>
+      </c>
+      <c r="F33">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.903725</v>
+      </c>
+      <c r="H33">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33">
+        <v>0.90473115352440103</v>
+      </c>
+      <c r="L33">
+        <v>0.88520416426415904</v>
+      </c>
+      <c r="M33">
+        <v>0.89468601235775502</v>
+      </c>
+      <c r="N33">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O33">
+        <v>0.903725</v>
+      </c>
+      <c r="P33">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34">
+        <v>0.92188420528036497</v>
+      </c>
+      <c r="D34">
+        <v>0.93011573304266004</v>
+      </c>
+      <c r="E34">
+        <v>0.91564976121189801</v>
+      </c>
+      <c r="F34">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G34">
+        <v>0.903725</v>
+      </c>
+      <c r="H34">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34">
+        <v>0.91134545145489598</v>
+      </c>
+      <c r="L34">
+        <v>0.91574043196715504</v>
+      </c>
+      <c r="M34">
+        <v>0.91674613414276895</v>
+      </c>
+      <c r="N34">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O34">
+        <v>0.903725</v>
+      </c>
+      <c r="P34">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <v>0.89613498258880198</v>
+      </c>
+      <c r="D35">
+        <v>0.91346951060719495</v>
+      </c>
+      <c r="E35">
+        <v>0.93677445417222005</v>
+      </c>
+      <c r="F35">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="G35">
+        <v>0.903725</v>
+      </c>
+      <c r="H35">
+        <v>0.90698699999999999</v>
+      </c>
+      <c r="J35" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35">
+        <v>0.92188420528036497</v>
+      </c>
+      <c r="L35">
+        <v>0.93011573304266004</v>
+      </c>
+      <c r="M35">
+        <v>0.91564976121189801</v>
+      </c>
+      <c r="N35">
+        <v>0.89666999999999997</v>
+      </c>
+      <c r="O35">
+        <v>0.903725</v>
+      </c>
+      <c r="P35">
+        <v>0.90698699999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <v>2.1065546820160999E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.2729794011663697E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.2341900052381201E-2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38">
+        <v>3.9207404791917803E-2</v>
+      </c>
+      <c r="L38">
+        <v>2.33683205147413E-2</v>
+      </c>
+      <c r="M38">
+        <v>3.7388630802793497E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39">
+        <v>2.7102891658715801E-2</v>
+      </c>
+      <c r="D39">
+        <v>9.1178696300748593E-3</v>
+      </c>
+      <c r="E39">
+        <v>1.46215431557742E-2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39">
+        <v>2.7102891658715801E-2</v>
+      </c>
+      <c r="L39">
+        <v>9.1178696300748593E-3</v>
+      </c>
+      <c r="M39">
+        <v>1.46215431557742E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <v>1.5980772575613401E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.18916922403634E-2</v>
+      </c>
+      <c r="E40">
+        <v>9.7508255636843399E-3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40">
+        <v>2.3982537504263102E-2</v>
+      </c>
+      <c r="L40">
+        <v>4.2579614388559298E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.1877622461327802E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <v>3.9207404791917803E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.33683205147413E-2</v>
+      </c>
+      <c r="E41">
+        <v>3.7388630802793497E-2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41">
+        <v>2.3513954819945601E-2</v>
+      </c>
+      <c r="L41">
+        <v>1.9975624780724399E-2</v>
+      </c>
+      <c r="M41">
+        <v>9.1995310331178509E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42">
+        <v>2.3982537504263102E-2</v>
+      </c>
+      <c r="D42">
+        <v>4.2579614388559298E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.1877622461327802E-2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42">
+        <v>2.1065546820160999E-2</v>
+      </c>
+      <c r="L42">
+        <v>3.2729794011663697E-2</v>
+      </c>
+      <c r="M42">
+        <v>2.2341900052381201E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <v>3.3105032874113399E-2</v>
+      </c>
+      <c r="D43">
+        <v>1.3255190058802701E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.9198891056000301E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43">
+        <v>1.5980772575613401E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.18916922403634E-2</v>
+      </c>
+      <c r="M43">
+        <v>9.7508255636843399E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44">
+        <v>2.3513954819945601E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.9975624780724399E-2</v>
+      </c>
+      <c r="E44">
+        <v>9.1995310331178509E-3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44">
+        <v>3.3105032874113399E-2</v>
+      </c>
+      <c r="L44">
+        <v>1.3255190058802701E-2</v>
+      </c>
+      <c r="M44">
+        <v>1.9198891056000301E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3850,11 +4391,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <sortState ref="A1:G7">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="inter-sub mv" sheetId="1" r:id="rId1"/>
-    <sheet name="modules" sheetId="2" r:id="rId2"/>
+    <sheet name="inter's modules" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,62 @@
   </si>
   <si>
     <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippo-tha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensory-motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,8 +1128,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153478272"/>
-        <c:axId val="153167744"/>
+        <c:axId val="153887104"/>
+        <c:axId val="153889024"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1309,11 +1365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153478272"/>
-        <c:axId val="153167744"/>
+        <c:axId val="153887104"/>
+        <c:axId val="153889024"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="153478272"/>
+        <c:axId val="153887104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153167744"/>
+        <c:crossAx val="153889024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1350,7 +1406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153167744"/>
+        <c:axId val="153889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1382,7 +1438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153478272"/>
+        <c:crossAx val="153887104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2740,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3552,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4370,14 +4426,70 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,42 @@
   </si>
   <si>
     <t>hypo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,10 +756,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$B$12:$B$21</c:f>
+                <c:f>'inter-sub mv'!$B$12:$B$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
                     <c:v>3.9207404791917803E-2</c:v>
                   </c:pt>
@@ -750,10 +786,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'inter-sub mv'!$B$12:$B$21</c:f>
+                <c:f>'inter-sub mv'!$B$12:$B$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
                     <c:v>3.9207404791917803E-2</c:v>
                   </c:pt>
@@ -885,6 +921,9 @@
                   <c:pt idx="6">
                     <c:v>1.3255190058802701E-2</c:v>
                   </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -914,6 +953,9 @@
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>1.3255190058802701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1128,8 +1170,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153887104"/>
-        <c:axId val="153889024"/>
+        <c:axId val="150151168"/>
+        <c:axId val="150153088"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1365,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153887104"/>
-        <c:axId val="153889024"/>
+        <c:axId val="150151168"/>
+        <c:axId val="150153088"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="153887104"/>
+        <c:axId val="150151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153889024"/>
+        <c:crossAx val="150153088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153889024"/>
+        <c:axId val="150153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1438,7 +1480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153887104"/>
+        <c:crossAx val="150151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2796,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3090,7 +3132,43 @@
         <v>1.9198891056000301E-2</v>
       </c>
     </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3098,6 +3176,33 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" t="s">
@@ -3610,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>

--- a/Work/static_comparision.xlsx
+++ b/Work/static_comparision.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="6870"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="6870" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="inter-sub mv" sheetId="1" r:id="rId1"/>
     <sheet name="inter's modules" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sig_module_correalation" sheetId="3" r:id="rId3"/>
+    <sheet name="MV across levels" sheetId="4" r:id="rId4"/>
+    <sheet name="NumberofSubModules" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>MV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +608,98 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MVk(2,3) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MVk(1,2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean for MVk(1,2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean for MVk(2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean_Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean_Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean_High</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +718,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -658,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +788,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,8 +1285,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150151168"/>
-        <c:axId val="150153088"/>
+        <c:axId val="163127296"/>
+        <c:axId val="163129216"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1407,11 +1522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150151168"/>
-        <c:axId val="150153088"/>
+        <c:axId val="163127296"/>
+        <c:axId val="163129216"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="150151168"/>
+        <c:axId val="163127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150153088"/>
+        <c:crossAx val="163129216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150153088"/>
+        <c:axId val="163129216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1480,7 +1595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150151168"/>
+        <c:crossAx val="163127296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -1510,6 +1625,1840 @@
           <c:h val="0.46740963667423341"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>In ant-DMN</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>sig_module_correalation!$F$2:$F$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.57E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.78E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1600000000000003E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>sig_module_correalation!$F$2:$F$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.57E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.78E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1600000000000003E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>sig_module_correalation!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sig_module_correalation!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="132625152"/>
+        <c:axId val="132627072"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>sig_module_correalation!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sig_module_correalation!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8266666666666656E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8266999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8266999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="132625152"/>
+        <c:axId val="132627072"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="132625152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Level</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ose</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132627072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132627072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Self-correlation</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132625152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Hypothalamas and pos-DMN</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>sig_module_correalation!$F$8:$F$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>sig_module_correalation!$F$8:$F$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>sig_module_correalation!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sig_module_correalation!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="150537344"/>
+        <c:axId val="150538880"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>sig_module_correalation!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sig_module_correalation!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.2000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="163377536"/>
+        <c:axId val="163314304"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="150537344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Level</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of Dose</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150538880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150538880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5000000000000003E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> correlation</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150537344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="163314304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163377536"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="163377536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163314304"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MV across  doses</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MV across levels'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MVk(1,2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'MV across levels'!$B$11:$B$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.23599999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'MV across levels'!$B$11:$B$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1128</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.23599999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MV across levels'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MV across levels'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MV across levels'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MVk(2,3) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'MV across levels'!$C$11:$C$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1246</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.7600000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13059999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'MV across levels'!$C$11:$C$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1246</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.7600000000000006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13059999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MV across levels'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MV across levels'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11360000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="159719808"/>
+        <c:axId val="159776128"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MV across levels'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean for MVk(1,2) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MV across levels'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MV across levels'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean for MVk(2,3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MV across levels'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42243333333333327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.422433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="159719808"/>
+        <c:axId val="159776128"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="159719808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Modules</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159776128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159776128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mean MV</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159719808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Numbers of Sub-Modules</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> change along doses</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$B$16:$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.1909000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0089999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$B$16:$B$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.1909000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5667</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0089999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumberofSubModules!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7272999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7273000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$C$16:$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.80900000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2721</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.7006</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$C$16:$C$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.80900000000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2721</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.7006</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumberofSubModules!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.3635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2727000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$D$16:$D$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5076000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4141999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.89439999999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>NumberofSubModules!$D$16:$D$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.5076000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4141999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.89439999999999997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumberofSubModules!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4545000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="163633024"/>
+        <c:axId val="163634560"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean_Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NumberofSubModules!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9393999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean_Mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NumberofSubModules!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2423999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberofSubModules!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean_High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>NumberofSubModules!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Insular</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ant-DMN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NumberofSubModules!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.4848333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4848330000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4848330000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="166893824"/>
+        <c:axId val="166892288"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="163633024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Modules</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163634560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163634560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Numbers</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of  SUbModules</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163633024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166892288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166893824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="166893824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166892288"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2549,6 +4498,875 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="肘形连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7296150" y="990600"/>
+          <a:ext cx="609600" cy="171453"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1563"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286625" y="752475"/>
+          <a:ext cx="990600" cy="161928"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="肘形连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="752478"/>
+          <a:ext cx="1333500" cy="209547"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40903</cdr:x>
+      <cdr:y>0.33449</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55</cdr:x>
+      <cdr:y>0.38368</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="肘形连接符 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1870075" y="917579"/>
+          <a:ext cx="644525" cy="134934"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 101725"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51042</cdr:x>
+      <cdr:y>0.17188</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.57083</cdr:x>
+      <cdr:y>0.27951</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2333625" y="471488"/>
+          <a:ext cx="276225" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38194</cdr:x>
+      <cdr:y>0.2581</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44236</cdr:x>
+      <cdr:y>0.36574</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1746250" y="708025"/>
+          <a:ext cx="276225" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33333</cdr:x>
+      <cdr:y>0.32455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53219</cdr:x>
+      <cdr:y>0.3843</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="肘形连接符 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1660525" y="879475"/>
+          <a:ext cx="990600" cy="161928"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52648</cdr:x>
+      <cdr:y>0.32455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79417</cdr:x>
+      <cdr:y>0.40187</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="肘形连接符 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2637758" y="947487"/>
+          <a:ext cx="1341149" cy="225751"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52836</cdr:x>
+      <cdr:y>0.25425</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58381</cdr:x>
+      <cdr:y>0.36321</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2632075" y="688975"/>
+          <a:ext cx="276225" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41107</cdr:x>
+      <cdr:y>0.23986</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45973</cdr:x>
+      <cdr:y>0.31041</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="肘形连接符 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2333626" y="647700"/>
+          <a:ext cx="276225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45626</cdr:x>
+      <cdr:y>0.24104</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49832</cdr:x>
+      <cdr:y>0.31393</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="肘形连接符 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2590133" y="650878"/>
+          <a:ext cx="238793" cy="196847"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 97866"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43009</cdr:x>
+      <cdr:y>0.16696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.47903</cdr:x>
+      <cdr:y>0.28476</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2441575" y="450850"/>
+          <a:ext cx="277810" cy="318108"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2838,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4606,19 +7424,428 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C2:C4)</f>
+        <v>6.8266666666666656E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.8266999999999994E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.8266999999999994E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(C8:C9)</f>
+        <v>6.2000000000000006E-3</v>
+      </c>
+      <c r="F8">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D9">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F9">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <sortState ref="A1:G7">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="B2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.5635</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(B3:B5)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(C3:C5)</f>
+        <v>0.42243333333333327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.4375</v>
+      </c>
+      <c r="E4">
+        <v>0.422433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5">
+        <v>0.2273</v>
+      </c>
+      <c r="C5">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.4375</v>
+      </c>
+      <c r="E5">
+        <v>0.422433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="B10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11">
+        <v>0.1128</v>
+      </c>
+      <c r="C11">
+        <v>0.1246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12">
+        <v>0.128</v>
+      </c>
+      <c r="C12">
+        <v>9.7600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.13059999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>5.7272999999999996</v>
+      </c>
+      <c r="C3">
+        <v>5.3635999999999999</v>
+      </c>
+      <c r="D3">
+        <v>5.4545000000000003</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:B5)</f>
+        <v>3.9393999999999996</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(C3:C5)</f>
+        <v>4.2423999999999999</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(D3:D5)</f>
+        <v>4.4848333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>3.3635999999999999</v>
+      </c>
+      <c r="C4">
+        <v>4.2727000000000004</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3.9394</v>
+      </c>
+      <c r="F4">
+        <v>4.2423999999999999</v>
+      </c>
+      <c r="G4">
+        <v>4.4848330000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5">
+        <v>2.7273000000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.0909</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3.9394</v>
+      </c>
+      <c r="F5">
+        <v>4.2423999999999999</v>
+      </c>
+      <c r="G5">
+        <v>4.4848330000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16">
+        <v>1.1909000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D16">
+        <v>1.5076000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17">
+        <v>1.5667</v>
+      </c>
+      <c r="C17">
+        <v>1.2721</v>
+      </c>
+      <c r="D17">
+        <v>1.4141999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.7006</v>
+      </c>
+      <c r="D18">
+        <v>0.89439999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>